--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2244250.791259149</v>
+        <v>-2246833.823328877</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>83.56741318567468</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>94.17518289293685</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.645080455401</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>93.05572980479243</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.77147567452205</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>96.51881667305469</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>228.0656025585486</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>34.23549650735674</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>26.38956926516243</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>75.45713216103881</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>157.7277520215807</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>107.5003107098658</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>154.0440190255761</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1576,13 +1576,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>151.5133592021564</v>
+        <v>105.6507867899603</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>114.5006452705938</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>130.4114987159131</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>247.1549818849176</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,10 +2081,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>112.5005260950195</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>221.6488161050619</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>26.05480806223441</v>
       </c>
       <c r="H25" t="n">
-        <v>18.70843787977291</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.038513614976</v>
+        <v>171.0385136149756</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316666</v>
+        <v>158.4533545316661</v>
       </c>
       <c r="D28" t="n">
-        <v>44.76793778821889</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>137.6404960796075</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>38.62868798788203</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253076</v>
+        <v>156.7306717253071</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792626</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160426</v>
+        <v>72.47236975160384</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014316042</v>
+        <v>57.58178014315999</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346833</v>
+        <v>172.2328194346829</v>
       </c>
       <c r="T28" t="n">
-        <v>208.611983760327</v>
+        <v>208.6119837603266</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222829</v>
+        <v>277.3910078222825</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568667</v>
+        <v>243.3441767568663</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696297</v>
+        <v>277.7295317696293</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220759</v>
+        <v>216.9161888220754</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851335</v>
+        <v>209.7911867851331</v>
       </c>
     </row>
     <row r="29">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
@@ -3718,16 +3718,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
@@ -3955,16 +3955,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1639.43318328732</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C2" t="n">
-        <v>1270.470666346909</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D2" t="n">
-        <v>912.2049677401581</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E2" t="n">
-        <v>912.2049677401581</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F2" t="n">
-        <v>501.2190629505503</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794326</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524212</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263132</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.43318328732</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.4482993600904</v>
+        <v>160.5078031036909</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218346</v>
+        <v>160.5078031036909</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218346</v>
+        <v>160.5078031036909</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218346</v>
+        <v>160.5078031036909</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218345</v>
+        <v>160.5078031036909</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>160.5078031036909</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>160.5078031036909</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962294</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.096886488696</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068858</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596445</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181853</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>897.8855152378602</v>
+        <v>831.0565485757123</v>
       </c>
       <c r="S4" t="n">
-        <v>706.1996310646865</v>
+        <v>831.0565485757123</v>
       </c>
       <c r="T4" t="n">
-        <v>706.1996310646865</v>
+        <v>609.2899331452384</v>
       </c>
       <c r="U4" t="n">
-        <v>417.0967641903301</v>
+        <v>609.2899331452384</v>
       </c>
       <c r="V4" t="n">
-        <v>417.0967641903301</v>
+        <v>609.2899331452384</v>
       </c>
       <c r="W4" t="n">
-        <v>417.0967641903301</v>
+        <v>609.2899331452384</v>
       </c>
       <c r="X4" t="n">
-        <v>417.0967641903301</v>
+        <v>381.300382247221</v>
       </c>
       <c r="Y4" t="n">
-        <v>417.0967641903301</v>
+        <v>160.5078031036909</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1032.061124352532</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1032.061124352532</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4562,13 +4562,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993395</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267231</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.03470992366</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653546</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392466</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y5" t="n">
-        <v>1418.660964416654</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4638,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>482.8906159540807</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C7" t="n">
-        <v>313.9544330261738</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4747,28 +4747,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>886.3056962147944</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>886.3056962147944</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>664.5390807843204</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U7" t="n">
-        <v>664.5390807843204</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="V7" t="n">
-        <v>664.5390807843204</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="W7" t="n">
-        <v>664.5390807843204</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="X7" t="n">
-        <v>664.5390807843204</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="Y7" t="n">
-        <v>664.5390807843204</v>
+        <v>383.3613929424835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943749</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943749</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>958.1473305693555</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>572.3590779711112</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>565.4135772219078</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919561</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943749</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.8459426266614</v>
+        <v>472.1048757766374</v>
       </c>
       <c r="C10" t="n">
-        <v>362.8459426266614</v>
+        <v>472.1048757766374</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143257</v>
+        <v>321.9882363643017</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143257</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>765.2869866004313</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>765.2869866004313</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>765.2869866004313</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y10" t="n">
-        <v>544.4944074569012</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="11">
@@ -5018,13 +5018,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694709</v>
@@ -5115,22 +5115,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190824</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
         <v>631.7012443408905</v>
@@ -5197,49 +5197,49 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478299</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038377</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797779</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="U13" t="n">
-        <v>1824.417283336613</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1569.732795130727</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.315625093766</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
         <v>1280.315625093766</v>
@@ -5255,10 +5255,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,28 +5273,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.6374272687974</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2248.188593250933</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138416</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138416</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,28 +5525,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356193</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.81129684298</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1621.58919134635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1332.172021309389</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
         <v>2129.438138565707</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832228</v>
+        <v>1016.580456911439</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553159</v>
+        <v>847.6442739835326</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711968</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888037</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2266.280484787188</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T22" t="n">
-        <v>2046.67901981013</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U22" t="n">
-        <v>1757.603793154328</v>
+        <v>1936.428221820187</v>
       </c>
       <c r="V22" t="n">
-        <v>1502.919304948441</v>
+        <v>1936.428221820187</v>
       </c>
       <c r="W22" t="n">
-        <v>1213.50213491148</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>985.5125840134625</v>
+        <v>1419.021500885209</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134625</v>
+        <v>1198.228921741679</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6078,13 +6078,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400716</v>
+        <v>580.8993044876679</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121647</v>
+        <v>411.9631215597609</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998289</v>
+        <v>261.8464821474251</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998289</v>
+        <v>261.8464821474251</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998289</v>
+        <v>261.8464821474251</v>
       </c>
       <c r="G25" t="n">
-        <v>194.8007783998289</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782962</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797748</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138409</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703113</v>
+        <v>762.5477693179076</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1337.934786622704</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O27" t="n">
-        <v>1889.844516861991</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>663.4384611045981</v>
+        <v>663.4384611046046</v>
       </c>
       <c r="C28" t="n">
-        <v>503.3845676382682</v>
+        <v>503.3845676382754</v>
       </c>
       <c r="D28" t="n">
-        <v>458.1644284582491</v>
+        <v>503.3845676382754</v>
       </c>
       <c r="E28" t="n">
-        <v>458.1644284582491</v>
+        <v>364.3537635174598</v>
       </c>
       <c r="F28" t="n">
-        <v>458.1644284582491</v>
+        <v>325.3348867620234</v>
       </c>
       <c r="G28" t="n">
-        <v>299.8506186347061</v>
+        <v>167.0210769384808</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0210769384812</v>
+        <v>167.0210769384808</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795875</v>
+        <v>182.7582133795878</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064177</v>
+        <v>453.1530078064184</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836493</v>
+        <v>852.2571338836506</v>
       </c>
       <c r="M28" t="n">
-        <v>1282.972368515976</v>
+        <v>1282.972368515977</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077276</v>
+        <v>1709.087772077278</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687553</v>
+        <v>2087.322584687555</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162402</v>
+        <v>2388.703572162406</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790594</v>
+        <v>2516.607338790597</v>
       </c>
       <c r="R28" t="n">
-        <v>2458.443924504573</v>
+        <v>2458.443924504577</v>
       </c>
       <c r="S28" t="n">
-        <v>2284.471379621054</v>
+        <v>2284.471379621059</v>
       </c>
       <c r="T28" t="n">
-        <v>2073.752204105573</v>
+        <v>2073.752204105577</v>
       </c>
       <c r="U28" t="n">
-        <v>1793.559266911348</v>
+        <v>1793.559266911352</v>
       </c>
       <c r="V28" t="n">
-        <v>1547.757068167038</v>
+        <v>1547.757068167042</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.222187591654</v>
+        <v>1267.222187591659</v>
       </c>
       <c r="X28" t="n">
-        <v>1048.114926155214</v>
+        <v>1048.11492615522</v>
       </c>
       <c r="Y28" t="n">
-        <v>836.2046364732607</v>
+        <v>836.2046364732669</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6464,7 +6464,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6634,10 +6634,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
         <v>2639.297491717215</v>
@@ -6652,16 +6652,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,22 +7020,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
         <v>782.5512955656815</v>
@@ -7087,31 +7087,31 @@
         <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380734</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7123,7 +7123,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
@@ -7132,13 +7132,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,16 +7354,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954153</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380732</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319314</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656808</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580106</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,13 +7840,13 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400515</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>271.1156284350083</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>316.7465427605166</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22723,7 +22723,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>3.296690605045655</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>66.16067699552526</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22768,10 +22768,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>134.6711151870877</v>
+        <v>180.5336875992839</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>65.33133491134353</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>86.99395161137514</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>4.982661438910345</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>68.5257599066251</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>64.53565828418223</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>139.4693302300345</v>
       </c>
       <c r="H25" t="n">
-        <v>121.5862749664511</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856559</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>95.0540686630322</v>
+        <v>139.8220064512506</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796079</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.62758145597</v>
+        <v>97.99889346808752</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.5012462792622</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1375036.869405786</v>
+        <v>1375036.869405787</v>
       </c>
     </row>
     <row r="11">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49356.14660531239</v>
+        <v>49356.1466053124</v>
       </c>
       <c r="C2" t="n">
+        <v>61578.13273982123</v>
+      </c>
+      <c r="D2" t="n">
         <v>61578.13273982124</v>
       </c>
-      <c r="D2" t="n">
-        <v>61578.13273982123</v>
-      </c>
       <c r="E2" t="n">
+        <v>60535.99497675047</v>
+      </c>
+      <c r="F2" t="n">
         <v>60535.99497675044</v>
       </c>
-      <c r="F2" t="n">
-        <v>60535.99497675046</v>
-      </c>
       <c r="G2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="J2" t="n">
         <v>60913.35287666379</v>
       </c>
       <c r="K2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="L2" t="n">
+        <v>61578.13273982126</v>
+      </c>
+      <c r="M2" t="n">
         <v>61578.13273982124</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>61578.13273982125</v>
       </c>
-      <c r="M2" t="n">
-        <v>61578.13273982127</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61578.13273982127</v>
-      </c>
       <c r="O2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982125</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.9756508466</v>
+        <v>224565.9756508469</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006279</v>
+        <v>12392.94474006244</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551183</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569038</v>
+        <v>7034.773253569385</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006276</v>
+        <v>12392.94474006244</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687965</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687969</v>
@@ -26439,25 +26439,25 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>18330.12873445284</v>
+        <v>18330.12873445298</v>
       </c>
       <c r="K4" t="n">
         <v>23427.49926997314</v>
       </c>
       <c r="L4" t="n">
-        <v>23427.49926997316</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="M4" t="n">
         <v>23427.49926997314</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.49926997316</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="O4" t="n">
+        <v>23427.49926997313</v>
+      </c>
+      <c r="P4" t="n">
         <v>23427.49926997314</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23427.49926997313</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1387907.18667268</v>
+        <v>-1388314.586210496</v>
       </c>
       <c r="C6" t="n">
-        <v>-139952.5519256245</v>
+        <v>-139952.5519256246</v>
       </c>
       <c r="D6" t="n">
-        <v>-139952.5519256245</v>
+        <v>-139952.5519256246</v>
       </c>
       <c r="E6" t="n">
-        <v>-381435.6366613916</v>
+        <v>-381470.3745868275</v>
       </c>
       <c r="F6" t="n">
-        <v>-56023.1748540363</v>
+        <v>-56057.91277947206</v>
       </c>
       <c r="G6" t="n">
-        <v>-56023.17485403633</v>
+        <v>-56057.91277947203</v>
       </c>
       <c r="H6" t="n">
-        <v>-56023.17485403636</v>
+        <v>-56057.91277947206</v>
       </c>
       <c r="I6" t="n">
-        <v>-56023.17485403633</v>
+        <v>-56057.91277947199</v>
       </c>
       <c r="J6" t="n">
-        <v>-283844.5392733606</v>
+        <v>-283866.698602133</v>
       </c>
       <c r="K6" t="n">
-        <v>-77406.4271241301</v>
+        <v>-77406.42712412974</v>
       </c>
       <c r="L6" t="n">
-        <v>-65013.48238406731</v>
+        <v>-65013.48238406728</v>
       </c>
       <c r="M6" t="n">
-        <v>-150068.510319579</v>
+        <v>-150068.5103195791</v>
       </c>
       <c r="N6" t="n">
-        <v>-65013.48238406729</v>
+        <v>-65013.4823840673</v>
       </c>
       <c r="O6" t="n">
-        <v>-72048.25563763632</v>
+        <v>-72048.25563763667</v>
       </c>
       <c r="P6" t="n">
-        <v>-77406.42712413004</v>
+        <v>-77406.42712412972</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="K2" t="n">
         <v>24.28464749203975</v>
@@ -26716,13 +26716,13 @@
         <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961763</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507848</v>
+        <v>15.49118092507805</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961298</v>
+        <v>8.793466566961731</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507845</v>
+        <v>15.49118092507805</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961763</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507848</v>
+        <v>15.49118092507805</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>258.1642249476283</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>158.1723360975049</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>54.69665616269059</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>192.1950840869324</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>279.2259094596441</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>253.1939736318728</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>38.93365193670338</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28068,13 +28068,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>98.09362429825185</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-3.013876632303354e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.282707439211663e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28801,10 +28801,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961266</v>
+        <v>8.793466566961699</v>
       </c>
     </row>
     <row r="29">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31835,7 +31835,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>369.1789913099994</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,28 +32072,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366847</v>
+        <v>320.9147064709955</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32102,7 +32102,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>338.1920576279218</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32710,7 +32710,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32959,7 +32959,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33023,10 +33023,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>314.3020503687028</v>
       </c>
       <c r="P27" t="n">
-        <v>531.2627466777524</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33199,7 +33199,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33740,16 +33740,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,13 +35495,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>226.582746865555</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629567</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>237.2862717533515</v>
+        <v>189.5729943876622</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>196.0580237059035</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36531,7 +36531,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36671,10 +36671,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>171.7058059242583</v>
       </c>
       <c r="P27" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991463</v>
+        <v>89.83994982991506</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765962</v>
+        <v>273.1260549765966</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860927</v>
+        <v>403.1354808860931</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680064</v>
+        <v>435.0658935680068</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568687</v>
+        <v>430.4195995568691</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730067</v>
+        <v>382.0553662730071</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735862</v>
+        <v>304.4252398735866</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668596</v>
+        <v>129.19572386686</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
         <v>418.6266618111711</v>
